--- a/analysis/Book1.xlsx
+++ b/analysis/Book1.xlsx
@@ -15,6 +15,7 @@
     <sheet name="stop and wait" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -244,6 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,12 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,16 +363,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.8421297073364197E-2</c:v>
+                  <c:v>1.8906641006469702E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17728853225707999</c:v>
+                  <c:v>0.68662290573120099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22261033058166499</c:v>
+                  <c:v>0.95154242515563903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1895183563232401</c:v>
+                  <c:v>5.6204559803008998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,16 +445,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0120556354522701</c:v>
+                  <c:v>1.05011792182922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7775865077972401</c:v>
+                  <c:v>2.2165059089660599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.86693143844604</c:v>
+                  <c:v>2.5938860416412299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3454181671142</c:v>
+                  <c:v>9.6217562198638902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,16 +527,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7228313922881999</c:v>
+                  <c:v>1.2578872203826901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0379790782928402</c:v>
+                  <c:v>2.3039055824279702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1759886741638104</c:v>
+                  <c:v>2.8530922412872299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.192370796203599</c:v>
+                  <c:v>9.97294936180114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,16 +609,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.6012776374816902</c:v>
+                  <c:v>2.7039034366607599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0948903560638401</c:v>
+                  <c:v>3.9227781295776301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9895058155059804</c:v>
+                  <c:v>4.7313481807708699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.353560400009101</c:v>
+                  <c:v>13.9752792358398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,16 +691,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.0749110221862797</c:v>
+                  <c:v>2.5927856922149601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2483757495880097</c:v>
+                  <c:v>3.9470022201538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5226200580596903</c:v>
+                  <c:v>4.8367008209228501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0873486518859</c:v>
+                  <c:v>13.8764870643615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,11 +715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-399084992"/>
-        <c:axId val="-295709472"/>
+        <c:axId val="-263933696"/>
+        <c:axId val="-263943488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-399084992"/>
+        <c:axId val="-263933696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,12 +832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-295709472"/>
+        <c:crossAx val="-263943488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-295709472"/>
+        <c:axId val="-263943488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-399084992"/>
+        <c:crossAx val="-263933696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1884,675 +1885,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="11">
+      <c r="K1" s="12"/>
+      <c r="L1" s="8">
         <v>0</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="8">
         <v>0.05</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="8">
         <v>0.1</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>4.3681621551513602E-2</v>
+        <v>2.10134983062744E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>3.9024829864501898E-2</v>
+        <v>1.10065937042236E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>3.8354158401489202E-2</v>
+        <v>1.5635490417480399E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>3.8026094436645501E-2</v>
+        <v>1.56254768371582E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>3.3019781112670898E-2</v>
+        <v>3.12521457672119E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>3.8421297073364197E-2</v>
+        <v>1.8906641006469702E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>3.7872263216089902E-3</v>
-      </c>
-      <c r="K2" s="13" t="s">
+        <v>7.7576985527086596E-3</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>3.8421297073364197E-2</v>
+        <f>H2</f>
+        <v>1.8906641006469702E-2</v>
       </c>
       <c r="M2" s="3">
-        <v>0.17728853225707999</v>
+        <f>H7</f>
+        <v>0.68662290573120099</v>
       </c>
       <c r="N2" s="3">
-        <v>0.22261033058166499</v>
+        <f>H12</f>
+        <v>0.95154242515563903</v>
       </c>
       <c r="O2" s="4">
-        <v>1.1895183563232401</v>
+        <f>H17</f>
+        <v>5.6204559803008998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1.01947474479675</v>
+        <v>1.0400002002716</v>
       </c>
       <c r="D3" s="3">
-        <v>1.0266757011413501</v>
+        <v>1.065025806427</v>
       </c>
       <c r="E3" s="3">
-        <v>0.999614477157592</v>
+        <v>1.0557601451873699</v>
       </c>
       <c r="F3" s="3">
-        <v>1.0050077438354399</v>
+        <v>1.0495405197143499</v>
       </c>
       <c r="G3" s="3">
-        <v>1.0095055103302</v>
+        <v>1.0402629375457699</v>
       </c>
       <c r="H3" s="3">
-        <v>1.0120556354522701</v>
+        <v>1.05011792182922</v>
       </c>
       <c r="I3" s="4">
-        <v>1.09515733836799E-2</v>
-      </c>
-      <c r="K3" s="13" t="s">
+        <v>1.06524892108687E-2</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>1.0120556354522701</v>
+        <f>H3</f>
+        <v>1.05011792182922</v>
       </c>
       <c r="M3" s="3">
-        <v>3.7775865077972401</v>
+        <f>H8</f>
+        <v>2.2165059089660599</v>
       </c>
       <c r="N3" s="3">
-        <v>3.86693143844604</v>
+        <f>H13</f>
+        <v>2.5938860416412299</v>
       </c>
       <c r="O3" s="4">
-        <v>10.3454181671142</v>
+        <f>H18</f>
+        <v>9.6217562198638902</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>1.32356882095336</v>
+        <v>1.21582698822021</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0229532718658398</v>
+        <v>1.2035150527954099</v>
       </c>
       <c r="E4" s="3">
-        <v>1.4943618774414</v>
+        <v>1.2823097705841</v>
       </c>
       <c r="F4" s="3">
-        <v>1.4420735836028999</v>
+        <v>1.3117153644561701</v>
       </c>
       <c r="G4" s="3">
-        <v>2.3311994075775102</v>
+        <v>1.2760689258575399</v>
       </c>
       <c r="H4" s="3">
-        <v>1.7228313922881999</v>
+        <v>1.2578872203826901</v>
       </c>
       <c r="I4" s="4">
-        <v>0.43319125448503598</v>
-      </c>
-      <c r="K4" s="13" t="s">
+        <v>4.6232835205110498E-2</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
-        <v>1.7228313922881999</v>
+        <f>H4</f>
+        <v>1.2578872203826901</v>
       </c>
       <c r="M4" s="3">
-        <v>3.0379790782928402</v>
+        <f>H9</f>
+        <v>2.3039055824279702</v>
       </c>
       <c r="N4" s="3">
-        <v>4.1759886741638104</v>
+        <f>H14</f>
+        <v>2.8530922412872299</v>
       </c>
       <c r="O4" s="4">
-        <v>11.192370796203599</v>
+        <f>H19</f>
+        <v>9.97294936180114</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>7.2248623371124197</v>
+        <v>2.68570685386657</v>
       </c>
       <c r="D5" s="3">
-        <v>7.32169342041015</v>
+        <v>2.6880066394805899</v>
       </c>
       <c r="E5" s="3">
-        <v>6.5594196319579998</v>
+        <v>2.7445204257964999</v>
       </c>
       <c r="F5" s="3">
-        <v>16.009684801101599</v>
+        <v>2.7060642242431601</v>
       </c>
       <c r="G5" s="3">
-        <v>5.8907279968261701</v>
+        <v>2.69521903991699</v>
       </c>
       <c r="H5" s="3">
-        <v>8.6012776374816902</v>
+        <v>2.7039034366607599</v>
       </c>
       <c r="I5" s="4">
-        <v>4.1812861364305096</v>
-      </c>
-      <c r="K5" s="13" t="s">
+        <v>2.4050214875370401E-2</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>8.6012776374816902</v>
+        <f>H5</f>
+        <v>2.7039034366607599</v>
       </c>
       <c r="M5" s="3">
-        <v>5.0948903560638401</v>
+        <f>H10</f>
+        <v>3.9227781295776301</v>
       </c>
       <c r="N5" s="3">
-        <v>7.9895058155059804</v>
+        <f>H15</f>
+        <v>4.7313481807708699</v>
       </c>
       <c r="O5" s="4">
-        <v>25.353560400009101</v>
+        <f>H20</f>
+        <v>13.9752792358398</v>
+      </c>
+      <c r="S5">
+        <v>6565124</v>
+      </c>
+      <c r="T5">
+        <v>3.2123677730560298</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>10.8321545124053</v>
+        <v>2.59201836585998</v>
       </c>
       <c r="D6" s="5">
-        <v>8.9441606998443604</v>
+        <v>2.5668320655822701</v>
       </c>
       <c r="E6" s="5">
-        <v>9.7160739898681605</v>
+        <v>2.61324787139892</v>
       </c>
       <c r="F6" s="5">
-        <v>3.14347124099731</v>
+        <v>2.52858209609985</v>
       </c>
       <c r="G6" s="5">
-        <v>2.7386946678161599</v>
+        <v>2.6632480621337802</v>
       </c>
       <c r="H6" s="5">
-        <v>7.0749110221862797</v>
+        <v>2.5927856922149601</v>
       </c>
       <c r="I6" s="6">
-        <v>3.8355477395378199</v>
-      </c>
-      <c r="K6" s="14" t="s">
+        <v>5.04478137057746E-2</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="5">
-        <v>7.0749110221862797</v>
+        <f>H6</f>
+        <v>2.5927856922149601</v>
       </c>
       <c r="M6" s="5">
-        <v>5.2483757495880097</v>
+        <f>H11</f>
+        <v>3.9470022201538</v>
       </c>
       <c r="N6" s="5">
-        <v>8.5226200580596903</v>
+        <f>H16</f>
+        <v>4.8367008209228501</v>
       </c>
       <c r="O6" s="6">
-        <v>23.0873486518859</v>
+        <f>H21</f>
+        <v>13.8764870643615</v>
+      </c>
+      <c r="S6">
+        <f>S5/T5</f>
+        <v>2043702.484835472</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>0.05</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>3.7524938583374003E-2</v>
+        <v>1.94034576416015E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.21277666091918901</v>
+        <v>0.85227727890014604</v>
       </c>
       <c r="E7" s="1">
-        <v>0.21211075782775801</v>
+        <v>0.85314154624938898</v>
       </c>
       <c r="F7" s="1">
-        <v>0.21141862869262601</v>
+        <v>0.85415291786193803</v>
       </c>
       <c r="G7" s="1">
-        <v>0.21261167526245101</v>
+        <v>0.85413932800292902</v>
       </c>
       <c r="H7" s="1">
-        <v>0.17728853225707999</v>
+        <v>0.68662290573120099</v>
       </c>
       <c r="I7" s="2">
-        <v>7.8132011206515195E-2</v>
+        <v>0.37298782741339398</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>2.4469714164733798</v>
+        <v>2.1935358047485298</v>
       </c>
       <c r="D8" s="3">
-        <v>9.3785088062286306</v>
+        <v>2.2563371658325102</v>
       </c>
       <c r="E8" s="3">
-        <v>2.1078095436096098</v>
+        <v>2.2178459167480402</v>
       </c>
       <c r="F8" s="3">
-        <v>2.33804011344909</v>
+        <v>2.2539992332458398</v>
       </c>
       <c r="G8" s="3">
-        <v>2.6166026592254599</v>
+        <v>2.1608114242553702</v>
       </c>
       <c r="H8" s="3">
-        <v>3.7775865077972401</v>
+        <v>2.2165059089660599</v>
       </c>
       <c r="I8" s="4">
-        <v>3.1364470162343601</v>
+        <v>4.0692675400249297E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>2.9823901653289702</v>
+        <v>2.3004486560821502</v>
       </c>
       <c r="D9" s="3">
-        <v>2.89383792877197</v>
+        <v>2.31764459609985</v>
       </c>
       <c r="E9" s="3">
-        <v>2.8471376895904501</v>
+        <v>2.25050568580627</v>
       </c>
       <c r="F9" s="3">
-        <v>2.7943427562713601</v>
+        <v>2.30643534660339</v>
       </c>
       <c r="G9" s="3">
-        <v>3.67218685150146</v>
+        <v>2.3444936275482098</v>
       </c>
       <c r="H9" s="3">
-        <v>3.0379790782928402</v>
+        <v>2.3039055824279702</v>
       </c>
       <c r="I9" s="4">
-        <v>0.36120125653088098</v>
+        <v>3.4300324011264399E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>5.1681733131408603</v>
+        <v>3.9018452167510902</v>
       </c>
       <c r="D10" s="3">
-        <v>5.0271689891815097</v>
+        <v>3.89242315292358</v>
       </c>
       <c r="E10" s="3">
-        <v>5.0591650009155202</v>
+        <v>3.92650151252746</v>
       </c>
       <c r="F10" s="3">
-        <v>4.9667556285858101</v>
+        <v>3.8968908786773602</v>
       </c>
       <c r="G10" s="3">
-        <v>5.2531888484954798</v>
+        <v>3.9962298870086599</v>
       </c>
       <c r="H10" s="3">
-        <v>5.0948903560638401</v>
+        <v>3.9227781295776301</v>
       </c>
       <c r="I10" s="4">
-        <v>0.114793071897692</v>
+        <v>4.3124196968010203E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="5">
-        <v>5.0864946842193604</v>
+        <v>3.8698592185974099</v>
       </c>
       <c r="D11" s="5">
-        <v>4.7593197822570801</v>
+        <v>3.9634935855865399</v>
       </c>
       <c r="E11" s="5">
-        <v>6.1696367263793901</v>
+        <v>4.0571329593658403</v>
       </c>
       <c r="F11" s="5">
-        <v>4.7618389129638601</v>
+        <v>3.92986583709716</v>
       </c>
       <c r="G11" s="5">
-        <v>5.4645886421203604</v>
+        <v>3.9146595001220699</v>
       </c>
       <c r="H11" s="5">
-        <v>5.2483757495880097</v>
+        <v>3.9470022201538</v>
       </c>
       <c r="I11" s="6">
-        <v>0.59109413678256995</v>
+        <v>7.0163193174325997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>0.1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0.19934391975402799</v>
+        <v>0.85136675834655695</v>
       </c>
       <c r="D12" s="1">
-        <v>0.22251868247985801</v>
+        <v>0.97745108604431097</v>
       </c>
       <c r="E12" s="1">
-        <v>0.22266817092895499</v>
+        <v>0.97457671165466297</v>
       </c>
       <c r="F12" s="1">
-        <v>0.238090515136718</v>
+        <v>0.97515535354614202</v>
       </c>
       <c r="G12" s="1">
-        <v>0.23043036460876401</v>
+        <v>0.97916221618652299</v>
       </c>
       <c r="H12" s="1">
-        <v>0.22261033058166499</v>
+        <v>0.95154242515563903</v>
       </c>
       <c r="I12" s="2">
-        <v>1.45097093675599E-2</v>
+        <v>5.60299574512872E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>3.6093509197235099</v>
+        <v>2.60774445533752</v>
       </c>
       <c r="D13" s="3">
-        <v>3.8987193107604901</v>
+        <v>2.5536262989044101</v>
       </c>
       <c r="E13" s="3">
-        <v>3.78590607643127</v>
+        <v>2.5578851699829102</v>
       </c>
       <c r="F13" s="3">
-        <v>3.7803428173065101</v>
+        <v>2.5843927860260001</v>
       </c>
       <c r="G13" s="3">
-        <v>4.2603380680084202</v>
+        <v>2.66578149795532</v>
       </c>
       <c r="H13" s="3">
-        <v>3.86693143844604</v>
+        <v>2.5938860416412299</v>
       </c>
       <c r="I13" s="4">
-        <v>0.24299674238338501</v>
+        <v>4.5738506251183697E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>4.2140240669250399</v>
+        <v>2.72222447395324</v>
       </c>
       <c r="D14" s="3">
-        <v>4.3542165756225497</v>
+        <v>2.7457516193389799</v>
       </c>
       <c r="E14" s="3">
-        <v>4.6610257625579798</v>
+        <v>3.01491951942443</v>
       </c>
       <c r="F14" s="3">
-        <v>4.1645114421844402</v>
+        <v>2.9906268119811998</v>
       </c>
       <c r="G14" s="3">
-        <v>3.4861655235290501</v>
+        <v>2.7919387817382799</v>
       </c>
       <c r="H14" s="3">
-        <v>4.1759886741638104</v>
+        <v>2.8530922412872299</v>
       </c>
       <c r="I14" s="4">
-        <v>0.43141063938096103</v>
+        <v>0.139186882775725</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>7.9400207996368399</v>
+        <v>4.69783163070678</v>
       </c>
       <c r="D15" s="3">
-        <v>7.6867907047271702</v>
+        <v>4.7220702171325604</v>
       </c>
       <c r="E15" s="3">
-        <v>8.2301669120788503</v>
+        <v>4.72871494293212</v>
       </c>
       <c r="F15" s="3">
-        <v>8.7192075252532906</v>
+        <v>4.7700543403625399</v>
       </c>
       <c r="G15" s="3">
-        <v>7.3713431358337402</v>
+        <v>4.7380697727203298</v>
       </c>
       <c r="H15" s="3">
-        <v>7.9895058155059804</v>
+        <v>4.7313481807708699</v>
       </c>
       <c r="I15" s="4">
-        <v>0.51637986314358997</v>
+        <v>2.62665198858682E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="5">
-        <v>9.2804830074310303</v>
+        <v>4.9718136787414497</v>
       </c>
       <c r="D16" s="5">
-        <v>8.3074250221252406</v>
+        <v>4.5812716484069798</v>
       </c>
       <c r="E16" s="5">
-        <v>8.3083388805389404</v>
+        <v>4.8029501438140798</v>
       </c>
       <c r="F16" s="5">
-        <v>8.8916695117950404</v>
+        <v>5.0234808921813903</v>
       </c>
       <c r="G16" s="5">
-        <v>7.8251838684081996</v>
+        <v>4.8039877414703298</v>
       </c>
       <c r="H16" s="5">
-        <v>8.5226200580596903</v>
+        <v>4.8367008209228501</v>
       </c>
       <c r="I16" s="6">
-        <v>0.56771390561141799</v>
+        <v>0.17363438262046799</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="13">
         <v>0.3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>0.24376559257507299</v>
+        <v>0.97618722915649403</v>
       </c>
       <c r="D17" s="1">
-        <v>1.4250509738922099</v>
+        <v>6.7817325592040998</v>
       </c>
       <c r="E17" s="1">
-        <v>1.42479372024536</v>
+        <v>6.7757041454315097</v>
       </c>
       <c r="F17" s="1">
-        <v>1.42279148101806</v>
+        <v>6.7841274738311697</v>
       </c>
       <c r="G17" s="1">
-        <v>1.4311900138854901</v>
+        <v>6.7845284938812203</v>
       </c>
       <c r="H17" s="1">
-        <v>1.1895183563232401</v>
+        <v>5.6204559803008998</v>
       </c>
       <c r="I17" s="2">
-        <v>0.528701225107019</v>
+        <v>2.5962275521577101</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>10.3687992095947</v>
+        <v>9.5306546688079798</v>
       </c>
       <c r="D18" s="3">
-        <v>10.2725675106048</v>
+        <v>9.6194386482238698</v>
       </c>
       <c r="E18" s="3">
-        <v>10.470692157745299</v>
+        <v>9.6055622100830007</v>
       </c>
       <c r="F18" s="3">
-        <v>10.327281951904199</v>
+        <v>9.5488972663879395</v>
       </c>
       <c r="G18" s="3">
-        <v>10.287750005722</v>
+        <v>9.8042283058166504</v>
       </c>
       <c r="H18" s="3">
-        <v>10.3454181671142</v>
+        <v>9.6217562198638902</v>
       </c>
       <c r="I18" s="4">
-        <v>7.93756939662041E-2</v>
+        <v>0.108595118386422</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>11.136982679367</v>
+        <v>10.081796169281001</v>
       </c>
       <c r="D19" s="3">
-        <v>11.1690843105316</v>
+        <v>10.0000464916229</v>
       </c>
       <c r="E19" s="3">
-        <v>11.2652690410614</v>
+        <v>10.0000336170196</v>
       </c>
       <c r="F19" s="3">
-        <v>11.3162393569946</v>
+        <v>9.9862089157104492</v>
       </c>
       <c r="G19" s="3">
-        <v>11.074278593063299</v>
+        <v>9.7966616153717005</v>
       </c>
       <c r="H19" s="3">
-        <v>11.192370796203599</v>
+        <v>9.97294936180114</v>
       </c>
       <c r="I19" s="4">
-        <v>9.7741299868523895E-2</v>
+        <v>0.105556411618293</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>23.019388914108202</v>
+        <v>13.5862603187561</v>
       </c>
       <c r="D20" s="3">
-        <v>23.776142835617001</v>
+        <v>14.155404806137</v>
       </c>
       <c r="E20" s="3">
-        <v>24.561378240585299</v>
+        <v>13.905003070831199</v>
       </c>
       <c r="F20" s="3">
-        <v>24.6131737232208</v>
+        <v>14.131016969680701</v>
       </c>
       <c r="G20" s="3">
-        <v>30.797718286514201</v>
+        <v>14.098711013793899</v>
       </c>
       <c r="H20" s="3">
-        <v>25.353560400009101</v>
+        <v>13.9752792358398</v>
       </c>
       <c r="I20" s="4">
-        <v>3.1125224013698398</v>
+        <v>0.23885629772053499</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5">
-        <v>22.785943984985298</v>
+        <v>14.106209516525199</v>
       </c>
       <c r="D21" s="5">
-        <v>22.9508006572723</v>
+        <v>13.7455396652221</v>
       </c>
       <c r="E21" s="5">
-        <v>22.2616703510284</v>
+        <v>13.7374715805053</v>
       </c>
       <c r="F21" s="5">
-        <v>22.313166141509999</v>
+        <v>13.824178218841499</v>
       </c>
       <c r="G21" s="5">
-        <v>25.1251621246337</v>
+        <v>13.969036340713499</v>
       </c>
       <c r="H21" s="5">
-        <v>23.0873486518859</v>
+        <v>13.8764870643615</v>
       </c>
       <c r="I21" s="6">
-        <v>1.1772082540542601</v>
+        <v>0.158545352339758</v>
       </c>
     </row>
   </sheetData>
